--- a/INTLINE/data/566/PHSA/MISSI/Volume of Production Index_historical.xlsx
+++ b/INTLINE/data/566/PHSA/MISSI/Volume of Production Index_historical.xlsx
@@ -3018,49 +3018,52 @@
         <v>78.5638884027511</v>
       </c>
       <c r="JR2">
-        <v>81.86781559283666</v>
+        <v>84.0595806558614</v>
       </c>
       <c r="JS2">
-        <v>54.34923067269455</v>
+        <v>55.3497918480648</v>
       </c>
       <c r="JT2">
-        <v>22.05817781693962</v>
+        <v>22.19091144230253</v>
       </c>
       <c r="JU2">
-        <v>85.3790438462448</v>
+        <v>87.28563362174521</v>
       </c>
       <c r="JV2">
-        <v>89.98150363472016</v>
+        <v>92.21436641558807</v>
       </c>
       <c r="JW2">
-        <v>90.16785103966089</v>
+        <v>92.21741699441908</v>
       </c>
       <c r="JX2">
-        <v>88.5979434446154</v>
+        <v>90.37652950290223</v>
       </c>
       <c r="JY2">
-        <v>88.21192196577795</v>
+        <v>90.01491519650125</v>
       </c>
       <c r="JZ2">
-        <v>89.35162322502352</v>
+        <v>91.32574741295689</v>
       </c>
       <c r="KA2">
-        <v>93.90738761764169</v>
+        <v>96.11440814322386</v>
       </c>
       <c r="KB2">
-        <v>96.46580403035449</v>
+        <v>98.60320405566297</v>
       </c>
       <c r="KC2">
-        <v>92.07450753565752</v>
+        <v>95.35903611619</v>
       </c>
       <c r="KD2">
-        <v>94.72235836987865</v>
+        <v>96.4995075298386</v>
       </c>
       <c r="KE2">
-        <v>95.36695468887807</v>
+        <v>98.11100614800975</v>
       </c>
       <c r="KF2">
-        <v>96.24074936949447</v>
+        <v>100.3619364492862</v>
+      </c>
+      <c r="KG2">
+        <v>90.2663915966976</v>
       </c>
     </row>
     <row r="3" spans="1:293">
@@ -3899,46 +3902,49 @@
         <v>109.2400061522696</v>
       </c>
       <c r="JS3">
-        <v>102.7553451329567</v>
+        <v>102.6889853869198</v>
       </c>
       <c r="JT3">
-        <v>131.8382876831046</v>
+        <v>131.6258676229129</v>
       </c>
       <c r="JU3">
-        <v>117.0406916746263</v>
+        <v>116.8625009530053</v>
       </c>
       <c r="JV3">
-        <v>111.7719480365671</v>
+        <v>111.6087181405815</v>
       </c>
       <c r="JW3">
-        <v>106.4151502756815</v>
+        <v>106.3266364441813</v>
       </c>
       <c r="JX3">
-        <v>97.48831815993479</v>
+        <v>97.53263180392699</v>
       </c>
       <c r="JY3">
-        <v>98.35551698232021</v>
+        <v>98.57198050354762</v>
       </c>
       <c r="JZ3">
-        <v>105.4818771459986</v>
+        <v>105.5343160435501</v>
       </c>
       <c r="KA3">
-        <v>115.0790295065977</v>
+        <v>115.0377850844102</v>
       </c>
       <c r="KB3">
-        <v>119.1375852773048</v>
+        <v>119.1189262429401</v>
       </c>
       <c r="KC3">
-        <v>118.5189387935647</v>
+        <v>119.0638166512544</v>
       </c>
       <c r="KD3">
-        <v>120.4958266581717</v>
+        <v>123.9019425673293</v>
       </c>
       <c r="KE3">
-        <v>123.5722484674998</v>
+        <v>126.5827060742997</v>
       </c>
       <c r="KF3">
-        <v>131.7030476191169</v>
+        <v>134.1206662946207</v>
+      </c>
+      <c r="KG3">
+        <v>125.6218938858304</v>
       </c>
     </row>
     <row r="4" spans="1:293">
@@ -4801,22 +4807,25 @@
         <v>94.00353281535332</v>
       </c>
       <c r="KA4">
-        <v>82.54915814497483</v>
+        <v>82.54915814256724</v>
       </c>
       <c r="KB4">
-        <v>94.38534064374825</v>
+        <v>94.38534064014624</v>
       </c>
       <c r="KC4">
-        <v>103.3103058225157</v>
+        <v>139.5938287173775</v>
       </c>
       <c r="KD4">
-        <v>94.99972390571199</v>
+        <v>110.4142324515262</v>
       </c>
       <c r="KE4">
-        <v>86.78044169331601</v>
+        <v>102.9061414846527</v>
       </c>
       <c r="KF4">
-        <v>99.98486254841137</v>
+        <v>118.7741005734214</v>
+      </c>
+      <c r="KG4">
+        <v>103.8974214569646</v>
       </c>
     </row>
     <row r="5" spans="1:293">
@@ -5652,49 +5661,52 @@
         <v>56.1243324991312</v>
       </c>
       <c r="JR5">
-        <v>23.40229537462455</v>
+        <v>54.45379706068339</v>
       </c>
       <c r="JS5">
-        <v>22.91362278597311</v>
+        <v>54.95953137594255</v>
       </c>
       <c r="JT5">
-        <v>26.73514253729635</v>
+        <v>60.41697969030852</v>
       </c>
       <c r="JU5">
-        <v>26.63879939927429</v>
+        <v>56.06260063086141</v>
       </c>
       <c r="JV5">
-        <v>27.04292897565399</v>
+        <v>61.60033921366009</v>
       </c>
       <c r="JW5">
-        <v>29.84577756877184</v>
+        <v>68.08993381283432</v>
       </c>
       <c r="JX5">
-        <v>33.24937855821288</v>
+        <v>74.92150287555582</v>
       </c>
       <c r="JY5">
-        <v>33.2863003644969</v>
+        <v>75.71492025443696</v>
       </c>
       <c r="JZ5">
-        <v>30.1549167434828</v>
+        <v>66.55154957481895</v>
       </c>
       <c r="KA5">
-        <v>30.743406149403</v>
+        <v>71.09656168615487</v>
       </c>
       <c r="KB5">
-        <v>32.39408961513561</v>
+        <v>72.19396726153755</v>
       </c>
       <c r="KC5">
-        <v>34.80545568442033</v>
+        <v>70.01330289176667</v>
       </c>
       <c r="KD5">
-        <v>27.42031503522624</v>
+        <v>44.16161340120146</v>
       </c>
       <c r="KE5">
-        <v>28.61264174646859</v>
+        <v>57.48499292446114</v>
       </c>
       <c r="KF5">
-        <v>31.29715312679314</v>
+        <v>70.90331528891758</v>
+      </c>
+      <c r="KG5">
+        <v>64.30367730942766</v>
       </c>
     </row>
     <row r="6" spans="1:293">
@@ -6557,22 +6569,25 @@
         <v>72.83746134145402</v>
       </c>
       <c r="KA6">
-        <v>86.05486690894897</v>
+        <v>86.054866815295</v>
       </c>
       <c r="KB6">
-        <v>73.10674067728615</v>
+        <v>73.10674058421976</v>
       </c>
       <c r="KC6">
-        <v>79.09927542805669</v>
+        <v>79.0992753349903</v>
       </c>
       <c r="KD6">
-        <v>89.12795158599533</v>
+        <v>86.63761038770167</v>
       </c>
       <c r="KE6">
-        <v>92.5720994201574</v>
+        <v>95.00097177513416</v>
       </c>
       <c r="KF6">
-        <v>92.91465949909228</v>
+        <v>92.77846001455234</v>
+      </c>
+      <c r="KG6">
+        <v>85.51398819275055</v>
       </c>
     </row>
     <row r="7" spans="1:293">
@@ -7435,22 +7450,25 @@
         <v>111.3351460275038</v>
       </c>
       <c r="KA7">
-        <v>114.7106576964418</v>
+        <v>114.7106576809466</v>
       </c>
       <c r="KB7">
-        <v>138.3298894259917</v>
+        <v>138.3298893941974</v>
       </c>
       <c r="KC7">
-        <v>128.4669986656446</v>
+        <v>128.4669986122281</v>
       </c>
       <c r="KD7">
-        <v>135.8663103719732</v>
+        <v>135.8683601525713</v>
       </c>
       <c r="KE7">
-        <v>117.560019215951</v>
+        <v>150.3266760849532</v>
       </c>
       <c r="KF7">
-        <v>130.6633383033277</v>
+        <v>157.7811550591733</v>
+      </c>
+      <c r="KG7">
+        <v>118.5821761443049</v>
       </c>
     </row>
     <row r="8" spans="1:293">
@@ -8313,22 +8331,25 @@
         <v>107.6962501317897</v>
       </c>
       <c r="KA8">
-        <v>112.9660892175037</v>
+        <v>112.9660891526799</v>
       </c>
       <c r="KB8">
-        <v>110.1767696577847</v>
+        <v>110.1767695646007</v>
       </c>
       <c r="KC8">
-        <v>113.8913214086665</v>
+        <v>112.2381577228814</v>
       </c>
       <c r="KD8">
-        <v>115.1930959596508</v>
+        <v>115.2981574892649</v>
       </c>
       <c r="KE8">
-        <v>119.3647137456731</v>
+        <v>119.4735799717649</v>
       </c>
       <c r="KF8">
-        <v>126.8527048021635</v>
+        <v>125.8407501194326</v>
+      </c>
+      <c r="KG8">
+        <v>119.2998139769549</v>
       </c>
     </row>
     <row r="9" spans="1:293">
@@ -9083,22 +9104,25 @@
         <v>121.0483768892386</v>
       </c>
       <c r="KA9">
-        <v>124.7242002041964</v>
+        <v>124.7241998329196</v>
       </c>
       <c r="KB9">
-        <v>130.4255884458936</v>
+        <v>130.4255880544263</v>
       </c>
       <c r="KC9">
-        <v>122.2165211050899</v>
+        <v>122.2165204767615</v>
       </c>
       <c r="KD9">
-        <v>99.95537833380169</v>
+        <v>99.92213121440504</v>
       </c>
       <c r="KE9">
-        <v>100.2099287527553</v>
+        <v>100.1712396576077</v>
       </c>
       <c r="KF9">
-        <v>100.869521851953</v>
+        <v>99.87671701072239</v>
+      </c>
+      <c r="KG9">
+        <v>89.29425736142966</v>
       </c>
     </row>
     <row r="10" spans="1:293">
@@ -9970,13 +9994,16 @@
         <v>56.62012847490264</v>
       </c>
       <c r="KD10">
-        <v>69.00275310925105</v>
+        <v>68.90963243496634</v>
       </c>
       <c r="KE10">
-        <v>68.36640330287071</v>
+        <v>68.07240697739688</v>
       </c>
       <c r="KF10">
-        <v>56.19886257917923</v>
+        <v>57.84387042517285</v>
+      </c>
+      <c r="KG10">
+        <v>50.90611055342775</v>
       </c>
     </row>
     <row r="11" spans="1:293">
@@ -10551,22 +10578,25 @@
         <v>81.55198068859724</v>
       </c>
       <c r="KA11">
-        <v>103.5161360587</v>
+        <v>103.4651510300051</v>
       </c>
       <c r="KB11">
-        <v>111.1598233539956</v>
+        <v>110.8222497710799</v>
       </c>
       <c r="KC11">
-        <v>90.87338202722776</v>
+        <v>90.77138073739347</v>
       </c>
       <c r="KD11">
-        <v>122.2829514207142</v>
+        <v>121.4936406995955</v>
       </c>
       <c r="KE11">
-        <v>115.3157194769694</v>
+        <v>116.0176066588659</v>
       </c>
       <c r="KF11">
-        <v>114.8050273142295</v>
+        <v>127.2098340974943</v>
+      </c>
+      <c r="KG11">
+        <v>123.660835502165</v>
       </c>
     </row>
     <row r="12" spans="1:293">
@@ -11177,22 +11207,25 @@
         <v>92.3352272587443</v>
       </c>
       <c r="KA12">
-        <v>95.97824672318065</v>
+        <v>95.9782466170394</v>
       </c>
       <c r="KB12">
-        <v>95.19648539933038</v>
+        <v>95.19648529382862</v>
       </c>
       <c r="KC12">
-        <v>88.15373459739811</v>
+        <v>88.15373449696736</v>
       </c>
       <c r="KD12">
-        <v>90.57613598759652</v>
+        <v>94.63946327016679</v>
       </c>
       <c r="KE12">
-        <v>92.63866442071377</v>
+        <v>96.26813622363429</v>
       </c>
       <c r="KF12">
-        <v>100.8625231280347</v>
+        <v>107.6647711090283</v>
+      </c>
+      <c r="KG12">
+        <v>93.03396038565981</v>
       </c>
     </row>
     <row r="13" spans="1:293">
@@ -12055,22 +12088,25 @@
         <v>113.4418229133823</v>
       </c>
       <c r="KA13">
-        <v>111.4180797570432</v>
+        <v>111.4180797519674</v>
       </c>
       <c r="KB13">
-        <v>121.5941580764578</v>
+        <v>121.5941580725738</v>
       </c>
       <c r="KC13">
-        <v>105.9209863531314</v>
+        <v>105.9081844227576</v>
       </c>
       <c r="KD13">
-        <v>97.80177929395502</v>
+        <v>97.88767987584744</v>
       </c>
       <c r="KE13">
-        <v>114.3567691462935</v>
+        <v>115.1522603654057</v>
       </c>
       <c r="KF13">
-        <v>108.697346218889</v>
+        <v>108.275241873233</v>
+      </c>
+      <c r="KG13">
+        <v>96.85552781164785</v>
       </c>
     </row>
     <row r="14" spans="1:293">
@@ -12933,22 +12969,25 @@
         <v>109.7840441232287</v>
       </c>
       <c r="KA14">
-        <v>104.2689310873488</v>
+        <v>104.1780663035843</v>
       </c>
       <c r="KB14">
-        <v>106.784185019731</v>
+        <v>106.7356557521427</v>
       </c>
       <c r="KC14">
-        <v>103.3983602758023</v>
+        <v>107.7005489327779</v>
       </c>
       <c r="KD14">
-        <v>95.61928655237833</v>
+        <v>92.13643221295165</v>
       </c>
       <c r="KE14">
-        <v>99.11942482819728</v>
+        <v>94.67538689981762</v>
       </c>
       <c r="KF14">
-        <v>104.8478163335897</v>
+        <v>100.9480801102238</v>
+      </c>
+      <c r="KG14">
+        <v>93.85350986465794</v>
       </c>
     </row>
     <row r="15" spans="1:293">
@@ -13703,22 +13742,25 @@
         <v>167.2722630245266</v>
       </c>
       <c r="KA15">
-        <v>151.9844888505627</v>
+        <v>151.9844887686235</v>
       </c>
       <c r="KB15">
-        <v>150.5880048755873</v>
+        <v>150.5880048248923</v>
       </c>
       <c r="KC15">
-        <v>129.462510743949</v>
+        <v>129.4625106822969</v>
       </c>
       <c r="KD15">
-        <v>160.4072231262228</v>
+        <v>169.8800924062979</v>
       </c>
       <c r="KE15">
-        <v>169.4191948399267</v>
+        <v>173.8428898639601</v>
       </c>
       <c r="KF15">
-        <v>160.4023960575331</v>
+        <v>201.0124521526037</v>
+      </c>
+      <c r="KG15">
+        <v>180.1125584571728</v>
       </c>
     </row>
     <row r="16" spans="1:293">
@@ -14581,25 +14623,28 @@
         <v>109.9902721225283</v>
       </c>
       <c r="KA16">
-        <v>110.742268182463</v>
+        <v>110.7422680280274</v>
       </c>
       <c r="KB16">
-        <v>106.0147976782243</v>
+        <v>106.0147974808548</v>
       </c>
       <c r="KC16">
-        <v>105.1578629519629</v>
+        <v>105.1578627885303</v>
       </c>
       <c r="KD16">
-        <v>56.70541640883562</v>
+        <v>55.24324529062058</v>
       </c>
       <c r="KE16">
-        <v>62.02819451629904</v>
+        <v>64.15613455529977</v>
       </c>
       <c r="KF16">
-        <v>67.99259601962213</v>
+        <v>74.31716799633476</v>
+      </c>
+      <c r="KG16">
+        <v>63.78200781040729</v>
       </c>
     </row>
-    <row r="17" spans="1:292">
+    <row r="17" spans="1:293">
       <c r="A17" s="1" t="s">
         <v>307</v>
       </c>
@@ -15360,16 +15405,19 @@
         <v>101.8909469013106</v>
       </c>
       <c r="KD17">
-        <v>134.1320621424908</v>
+        <v>133.5530069768189</v>
       </c>
       <c r="KE17">
-        <v>129.4449409502321</v>
+        <v>131.6713940303826</v>
       </c>
       <c r="KF17">
-        <v>141.1021472073787</v>
+        <v>146.2306836216917</v>
+      </c>
+      <c r="KG17">
+        <v>132.3921376532269</v>
       </c>
     </row>
-    <row r="18" spans="1:292">
+    <row r="18" spans="1:293">
       <c r="A18" s="1" t="s">
         <v>308</v>
       </c>
@@ -16229,25 +16277,28 @@
         <v>78.16392531343095</v>
       </c>
       <c r="KA18">
-        <v>79.12358070595124</v>
+        <v>79.12358069475471</v>
       </c>
       <c r="KB18">
-        <v>82.73322372102344</v>
+        <v>82.73322370734897</v>
       </c>
       <c r="KC18">
-        <v>83.88468966952503</v>
+        <v>83.88468964827824</v>
       </c>
       <c r="KD18">
-        <v>82.23403974036569</v>
+        <v>77.03456968408078</v>
       </c>
       <c r="KE18">
-        <v>83.20560408937003</v>
+        <v>77.35367663987034</v>
       </c>
       <c r="KF18">
-        <v>83.89105337599925</v>
+        <v>78.19967136137448</v>
+      </c>
+      <c r="KG18">
+        <v>65.28246609900221</v>
       </c>
     </row>
-    <row r="19" spans="1:292">
+    <row r="19" spans="1:293">
       <c r="A19" s="1" t="s">
         <v>309</v>
       </c>
@@ -17107,22 +17158,25 @@
         <v>111.6211629627376</v>
       </c>
       <c r="KA19">
-        <v>103.1302198531146</v>
+        <v>103.130219727095</v>
       </c>
       <c r="KB19">
-        <v>106.1528356736422</v>
+        <v>106.1528355405892</v>
       </c>
       <c r="KC19">
-        <v>88.83370913801309</v>
+        <v>88.83370892887241</v>
       </c>
       <c r="KD19">
-        <v>95.79098007327491</v>
+        <v>104.2348160595852</v>
       </c>
       <c r="KE19">
-        <v>106.2750237743567</v>
+        <v>105.66266312638</v>
       </c>
       <c r="KF19">
-        <v>108.4750340494955</v>
+        <v>103.4562395291167</v>
+      </c>
+      <c r="KG19">
+        <v>96.07324982817205</v>
       </c>
     </row>
   </sheetData>
